--- a/功能矩阵.xlsx
+++ b/功能矩阵.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28421"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="2040" yWindow="3140" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="前端" sheetId="1" r:id="rId1"/>
-    <sheet name="后端" sheetId="2" r:id="rId2"/>
-    <sheet name="1.0功能汇总" sheetId="3" r:id="rId3"/>
+    <sheet name="1.0功能汇总" sheetId="3" r:id="rId1"/>
+    <sheet name="前端" sheetId="1" r:id="rId2"/>
+    <sheet name="后端" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="95">
   <si>
     <t>已投保</t>
   </si>
@@ -167,9 +167,6 @@
     <t>按分类快搜：编辑推荐、车险、旅行、意外、健康、财产。</t>
   </si>
   <si>
-    <t>产品表，案例表，QA表搜索。结果以推出时间（产品）/点击数（案例）／数据录入时间（QA）降序排序。</t>
-  </si>
-  <si>
     <t>热搜词逻辑思考。</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t>手机号注册、登录</t>
   </si>
   <si>
-    <t>用户表录入</t>
-  </si>
-  <si>
     <t>以手机号实现跨平台登陆，微信公正号，app，pc网页。</t>
   </si>
   <si>
@@ -209,9 +203,6 @@
     <t>话务员记录概述，简单文字。热线记录。</t>
   </si>
   <si>
-    <t>平台24小时人工私信服务，私信聊天室。</t>
-  </si>
-  <si>
     <t>是否有成熟第3方平台？记录用于KPI及数据分析</t>
   </si>
   <si>
@@ -225,9 +216,6 @@
   </si>
   <si>
     <t>第3方平台数据分析，诸葛io，growingio。</t>
-  </si>
-  <si>
-    <t>产品库查询。</t>
   </si>
   <si>
     <t>更新时间：2017-7-16</t>
@@ -298,6 +286,83 @@
   <si>
     <t>用户画像录入。通过条件计算用户需要哪些保险。根据已投保险种计算风险值。</t>
   </si>
+  <si>
+    <t>按分类（同产品分类）快搜。</t>
+  </si>
+  <si>
+    <t>按分类查询，结果以录入时间降序。</t>
+  </si>
+  <si>
+    <t>一览信息：案例标题、副标题、录入时间</t>
+  </si>
+  <si>
+    <t>未来以点赞数排序。</t>
+  </si>
+  <si>
+    <t>详情：案例标题、副标题、录入时间、案例详情、点赞有用，评论。</t>
+  </si>
+  <si>
+    <t>案例详情库管理：案例录入、修改、删除。案例点赞数，评论一栏，管理员回答评论（不需要对用户评论配对嵌套，直接@即可）。</t>
+  </si>
+  <si>
+    <t>个人会员（他人查看）</t>
+  </si>
+  <si>
+    <t>站内信发送，批量多用户发送</t>
+  </si>
+  <si>
+    <t>从业人员验证：真实姓名，职位，所属公司及部门，一句话介绍，从业证拍照上传。</t>
+  </si>
+  <si>
+    <t>用户表录入。</t>
+  </si>
+  <si>
+    <t>从业证人工审核，站内信回折结果</t>
+  </si>
+  <si>
+    <t>是否可以和保险公司一起做有效审核？</t>
+  </si>
+  <si>
+    <t>按分类置顶</t>
+  </si>
+  <si>
+    <t>分类置顶QA一览</t>
+  </si>
+  <si>
+    <t>发布问题（提问/投诉），标题、内容</t>
+  </si>
+  <si>
+    <t>回答问题</t>
+  </si>
+  <si>
+    <t>我的历史问题，我的收藏（产品，案例，QA）</t>
+  </si>
+  <si>
+    <t>站内信箱：私信（谁评论了你，谁点赞了你的回答），系统信（注册成功，风险评估完成，从业审核回折）</t>
+  </si>
+  <si>
+    <t>昵称，角色，如果是从业人员显示从业信息，提问数，回答数。</t>
+  </si>
+  <si>
+    <t>问题一览：标题，发问者，发问时间，回答数，回答一览（回答者，回答内容，时间，点赞数），关闭状态。管理员回答。投诉类独立区分。</t>
+  </si>
+  <si>
+    <t>产品表：根据产品标题模糊查询，结果以上架时间降序。
+案例：根据标题字段、副标题字段和内容字段模糊查询，结果以浏览数和录入时间降序。
+QA：根据问题标题字段、副标题字段和问题内容字段模糊查询，结果以录入时间降序。</t>
+  </si>
+  <si>
+    <t>用户表查询，从业人员表查询</t>
+  </si>
+  <si>
+    <t>对别的人回答点赞有用，关闭自己的问题。</t>
+  </si>
+  <si>
+    <t>微信聊天在线咨询（10:00-18:00）</t>
+  </si>
+  <si>
+    <t>工作日平台人工私信服务，私信聊天室。</t>
+  </si>
 </sst>
 </file>
 
@@ -312,7 +377,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="136"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -454,8 +519,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -532,6 +605,41 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -556,36 +664,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -615,6 +698,10 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -644,6 +731,10 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -973,6 +1064,348 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="33.1640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42" style="8" customWidth="1"/>
+    <col min="3" max="3" width="43.1640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="52.1640625" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="9" customFormat="1" ht="27">
+      <c r="A1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="15"/>
+    </row>
+    <row r="2" spans="1:4" ht="20">
+      <c r="A2" s="10"/>
+      <c r="B2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="152">
+      <c r="A3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="38">
+      <c r="A4" s="19"/>
+      <c r="B4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="38">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:4" ht="38">
+      <c r="A6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="38">
+      <c r="A7" s="19"/>
+      <c r="B7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="57">
+      <c r="A8" s="20"/>
+      <c r="B8" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="76">
+      <c r="A9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="10"/>
+    </row>
+    <row r="10" spans="1:4" ht="39">
+      <c r="A10" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="38">
+      <c r="A11" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="38">
+      <c r="A12" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="38">
+      <c r="A13" s="19"/>
+      <c r="B13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="10"/>
+    </row>
+    <row r="14" spans="1:4" ht="76">
+      <c r="A14" s="20"/>
+      <c r="B14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="95">
+      <c r="A15" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="10"/>
+    </row>
+    <row r="16" spans="1:4" ht="20">
+      <c r="A16" s="19"/>
+      <c r="B16" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="20">
+      <c r="A17" s="19"/>
+      <c r="B17" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="10"/>
+    </row>
+    <row r="18" spans="1:4" ht="38">
+      <c r="A18" s="19"/>
+      <c r="B18" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" ht="76">
+      <c r="A19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="38">
+      <c r="A20" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="57">
+      <c r="A21" s="19"/>
+      <c r="B21" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="76">
+      <c r="A22" s="19"/>
+      <c r="B22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="38">
+      <c r="A23" s="19"/>
+      <c r="B23" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:4" ht="38">
+      <c r="A24" s="19"/>
+      <c r="B24" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="1:4" ht="76">
+      <c r="A25" s="20"/>
+      <c r="B25" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="17"/>
+    </row>
+    <row r="26" spans="1:4" ht="39">
+      <c r="A26" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="16"/>
+    </row>
+    <row r="27" spans="1:4" ht="39">
+      <c r="A27" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A20:A25"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A12:A14"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:G25"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
@@ -989,23 +1422,23 @@
   </cols>
   <sheetData>
     <row r="8" spans="1:7">
-      <c r="A8" s="15"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="14" t="s">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="14" t="s">
+      <c r="D8" s="28"/>
+      <c r="E8" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="15"/>
-      <c r="B9" s="15"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1023,7 +1456,7 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="24" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1044,7 +1477,7 @@
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="12"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
@@ -1063,7 +1496,7 @@
       <c r="G11" s="6"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="13"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
@@ -1082,7 +1515,7 @@
       <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -1101,7 +1534,7 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="9"/>
+      <c r="A14" s="22"/>
       <c r="B14" s="3" t="s">
         <v>22</v>
       </c>
@@ -1118,7 +1551,7 @@
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="10"/>
+      <c r="A15" s="23"/>
       <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
@@ -1135,7 +1568,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="21" t="s">
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -1154,7 +1587,7 @@
       </c>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="10"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="3" t="s">
         <v>11</v>
       </c>
@@ -1171,7 +1604,7 @@
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="8" t="s">
+      <c r="A18" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1190,7 +1623,7 @@
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="9"/>
+      <c r="A19" s="22"/>
       <c r="B19" s="3" t="s">
         <v>23</v>
       </c>
@@ -1207,7 +1640,7 @@
       </c>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="9"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
@@ -1224,7 +1657,7 @@
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="10"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="3" t="s">
         <v>21</v>
       </c>
@@ -1239,7 +1672,7 @@
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1256,7 +1689,7 @@
       <c r="G22" s="6"/>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="12"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
@@ -1271,7 +1704,7 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="12"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="3" t="s">
         <v>14</v>
       </c>
@@ -1286,7 +1719,7 @@
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="13"/>
+      <c r="A25" s="26"/>
       <c r="B25" s="3" t="s">
         <v>15</v>
       </c>
@@ -1321,7 +1754,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1338,246 +1771,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="33.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42" style="16" customWidth="1"/>
-    <col min="3" max="3" width="37.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="52.1640625" style="16" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="17" customFormat="1" ht="27">
-      <c r="A1" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="20">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="88" customHeight="1">
-      <c r="A3" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="38">
-      <c r="A4" s="22"/>
-      <c r="B4" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="38">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="20"/>
-    </row>
-    <row r="6" spans="1:4" ht="57">
-      <c r="A6" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="38">
-      <c r="A7" s="22"/>
-      <c r="B7" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="57">
-      <c r="A8" s="23"/>
-      <c r="B8" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="76">
-      <c r="A9" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="19"/>
-    </row>
-    <row r="10" spans="1:4" ht="39">
-      <c r="A10" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="38">
-      <c r="A11" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="20">
-      <c r="A12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-    </row>
-    <row r="13" spans="1:4" ht="20">
-      <c r="A13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="1:4" ht="95">
-      <c r="A14" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="19">
-      <c r="A15" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="76">
-      <c r="A16" s="25"/>
-      <c r="B16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D16" s="26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="20">
-      <c r="A17" s="27"/>
-      <c r="B17" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D17" s="27"/>
-    </row>
-    <row r="18" spans="1:4" ht="20">
-      <c r="A18" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="B18" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A6:A8"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>